--- a/jpcore-r4/feature/swg2-fixwarning/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-fixwarning/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-23T09:44:59+00:00</t>
+    <t>2023-05-24T01:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-fixwarning/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-fixwarning/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-24T01:34:22+00:00</t>
+    <t>2023-05-24T03:40:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
